--- a/lab3_correct.xlsx
+++ b/lab3_correct.xlsx
@@ -1,20 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PROJECTS\xls-lab\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18420" windowHeight="9795"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Сортировка" sheetId="1" r:id="rId1"/>
+    <sheet name="Итоги" sheetId="2" r:id="rId2"/>
+    <sheet name="Фильтр" sheetId="4" r:id="rId3"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Фильтр!$A$2:$F$17</definedName>
+  </definedNames>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="24">
   <si>
     <t>Поступление товаров</t>
   </si>
@@ -37,61 +47,95 @@
     <t>Стоимость</t>
   </si>
   <si>
+    <t>Пылесос</t>
+  </si>
+  <si>
+    <t>Комбайн</t>
+  </si>
+  <si>
+    <t>Чайник</t>
+  </si>
+  <si>
+    <t>Миксер</t>
+  </si>
+  <si>
+    <t>Утюг</t>
+  </si>
+  <si>
+    <t>Микровоновка</t>
+  </si>
+  <si>
+    <t>Телевизор</t>
+  </si>
+  <si>
     <t>Холодильник</t>
   </si>
   <si>
-    <t>Микровоновка</t>
-  </si>
-  <si>
-    <t>Чайник</t>
-  </si>
-  <si>
-    <t>Телевизор</t>
-  </si>
-  <si>
-    <t>Пылесос</t>
-  </si>
-  <si>
-    <t>Утюг</t>
-  </si>
-  <si>
-    <t>Миксер</t>
-  </si>
-  <si>
-    <t>Комбайн</t>
+    <t>Общий итог</t>
+  </si>
+  <si>
+    <t>Комбайн Итог</t>
+  </si>
+  <si>
+    <t>Микровоновка Итог</t>
+  </si>
+  <si>
+    <t>Миксер Итог</t>
+  </si>
+  <si>
+    <t>Пылесос Итог</t>
+  </si>
+  <si>
+    <t>Телевизор Итог</t>
+  </si>
+  <si>
+    <t>Утюг Итог</t>
+  </si>
+  <si>
+    <t>Холодильник Итог</t>
+  </si>
+  <si>
+    <t>Чайник Итог</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt formatCode="yyyy-mm-dd h:mm:ss" numFmtId="164"/>
-    <numFmt formatCode="MM/DD/YYYY" numFmtId="165"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00DDDDDD"/>
+        <fgColor rgb="FFDDDDDD"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -101,42 +145,86 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="00000000"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color rgb="00000000"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color rgb="00000000"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color rgb="00000000"/>
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="15">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -424,341 +512,1262 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A2:G19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="A1:F17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.5703125" customWidth="1"/>
+    <col min="2" max="2" width="21.85546875" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" customWidth="1"/>
+    <col min="5" max="5" width="12" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" customWidth="1"/>
+    <col min="7" max="7" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="4">
+        <v>42935</v>
+      </c>
+      <c r="D3" s="3">
+        <v>100</v>
+      </c>
+      <c r="E3" s="6">
+        <v>7800</v>
+      </c>
+      <c r="F3" s="6">
+        <f t="shared" ref="F3:F17" si="0">E3*D3</f>
+        <v>780000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="4">
+        <v>42970</v>
+      </c>
+      <c r="D4" s="3">
+        <v>38</v>
+      </c>
+      <c r="E4" s="6">
+        <v>4500</v>
+      </c>
+      <c r="F4" s="6">
+        <f t="shared" si="0"/>
+        <v>171000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="4">
+        <v>42885</v>
+      </c>
+      <c r="D5" s="3">
+        <v>38</v>
+      </c>
+      <c r="E5" s="6">
+        <v>3000</v>
+      </c>
+      <c r="F5" s="6">
+        <f t="shared" si="0"/>
+        <v>114000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="4">
+        <v>42811</v>
+      </c>
+      <c r="D6" s="3">
+        <v>25</v>
+      </c>
+      <c r="E6" s="6">
+        <v>3000</v>
+      </c>
+      <c r="F6" s="6">
+        <f t="shared" si="0"/>
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="4">
+        <v>42950</v>
+      </c>
+      <c r="D7" s="3">
+        <v>6</v>
+      </c>
+      <c r="E7" s="6">
+        <v>1500</v>
+      </c>
+      <c r="F7" s="6">
+        <f t="shared" si="0"/>
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="4">
+        <v>41700</v>
+      </c>
+      <c r="D8" s="3">
+        <v>50</v>
+      </c>
+      <c r="E8" s="6">
+        <v>6000</v>
+      </c>
+      <c r="F8" s="6">
+        <f t="shared" si="0"/>
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>7</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="4">
+        <v>42416</v>
+      </c>
+      <c r="D9" s="3">
+        <v>19</v>
+      </c>
+      <c r="E9" s="6">
+        <v>12000</v>
+      </c>
+      <c r="F9" s="6">
+        <f t="shared" si="0"/>
+        <v>228000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="4">
+        <v>42991</v>
+      </c>
+      <c r="D10" s="3">
+        <v>32</v>
+      </c>
+      <c r="E10" s="6">
+        <v>4500</v>
+      </c>
+      <c r="F10" s="6">
+        <f t="shared" si="0"/>
+        <v>144000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>9</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="4">
+        <v>42563</v>
+      </c>
+      <c r="D11" s="3">
+        <v>70</v>
+      </c>
+      <c r="E11" s="6">
+        <v>2000</v>
+      </c>
+      <c r="F11" s="6">
+        <f t="shared" si="0"/>
+        <v>140000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>10</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="4">
+        <v>42602</v>
+      </c>
+      <c r="D12" s="3">
+        <v>15</v>
+      </c>
+      <c r="E12" s="6">
+        <v>1000</v>
+      </c>
+      <c r="F12" s="6">
+        <f t="shared" si="0"/>
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>11</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="4">
+        <v>42949</v>
+      </c>
+      <c r="D13" s="3">
+        <v>20</v>
+      </c>
+      <c r="E13" s="6">
+        <v>2900</v>
+      </c>
+      <c r="F13" s="6">
+        <f t="shared" si="0"/>
+        <v>58000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>12</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="4">
+        <v>42493</v>
+      </c>
+      <c r="D14" s="3">
+        <v>56</v>
+      </c>
+      <c r="E14" s="6">
+        <v>25000</v>
+      </c>
+      <c r="F14" s="6">
+        <f t="shared" si="0"/>
+        <v>1400000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>13</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="4">
+        <v>42578</v>
+      </c>
+      <c r="D15" s="3">
+        <v>102</v>
+      </c>
+      <c r="E15" s="6">
+        <v>1200</v>
+      </c>
+      <c r="F15" s="6">
+        <f t="shared" si="0"/>
+        <v>122400</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>14</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="4">
+        <v>42586</v>
+      </c>
+      <c r="D16" s="3">
+        <v>45</v>
+      </c>
+      <c r="E16" s="6">
+        <v>500</v>
+      </c>
+      <c r="F16" s="6">
+        <f t="shared" si="0"/>
+        <v>22500</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>15</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="4">
+        <v>42809</v>
+      </c>
+      <c r="D17" s="3">
+        <v>25</v>
+      </c>
+      <c r="E17" s="6">
+        <v>1540</v>
+      </c>
+      <c r="F17" s="6">
+        <f t="shared" si="0"/>
+        <v>38500</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+    </row>
+  </sheetData>
+  <sortState ref="B3:F17">
+    <sortCondition ref="B5:B19"/>
+    <sortCondition ref="C5:C19"/>
+  </sortState>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G28"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" customWidth="1"/>
+    <col min="7" max="7" width="20.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="5"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="4">
+        <v>42935</v>
+      </c>
+      <c r="D3" s="3">
+        <v>100</v>
+      </c>
+      <c r="E3" s="6">
+        <v>7800</v>
+      </c>
+      <c r="F3" s="6">
+        <f>E3*D3</f>
+        <v>780000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
+      <c r="B4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6">
+        <f>SUBTOTAL(9,F3:F3)</f>
+        <v>780000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="4">
+        <v>42970</v>
+      </c>
+      <c r="D5" s="3">
+        <v>38</v>
+      </c>
+      <c r="E5" s="6">
+        <v>4500</v>
+      </c>
+      <c r="F5" s="6">
+        <f>E5*D5</f>
+        <v>171000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+      <c r="B6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6">
+        <f>SUBTOTAL(9,F5:F5)</f>
+        <v>171000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>3</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="4">
+        <v>42885</v>
+      </c>
+      <c r="D7" s="3">
+        <v>38</v>
+      </c>
+      <c r="E7" s="6">
+        <v>3000</v>
+      </c>
+      <c r="F7" s="6">
+        <f>E7*D7</f>
+        <v>114000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+      <c r="B8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6">
+        <f>SUBTOTAL(9,F7:F7)</f>
+        <v>114000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>4</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="4">
+        <v>42811</v>
+      </c>
+      <c r="D9" s="3">
+        <v>25</v>
+      </c>
+      <c r="E9" s="6">
+        <v>3000</v>
+      </c>
+      <c r="F9" s="6">
+        <f>E9*D9</f>
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>5</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="4">
+        <v>42950</v>
+      </c>
+      <c r="D10" s="3">
+        <v>6</v>
+      </c>
+      <c r="E10" s="6">
+        <v>1500</v>
+      </c>
+      <c r="F10" s="6">
+        <f>E10*D10</f>
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6">
+        <f>SUBTOTAL(9,F9:F10)</f>
+        <v>84000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>6</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="4">
+        <v>41700</v>
+      </c>
+      <c r="D12" s="3">
+        <v>50</v>
+      </c>
+      <c r="E12" s="6">
+        <v>6000</v>
+      </c>
+      <c r="F12" s="6">
+        <f>E12*D12</f>
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>7</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="4">
+        <v>42416</v>
+      </c>
+      <c r="D13" s="3">
+        <v>19</v>
+      </c>
+      <c r="E13" s="6">
+        <v>12000</v>
+      </c>
+      <c r="F13" s="6">
+        <f>E13*D13</f>
+        <v>228000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>8</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="4">
+        <v>42991</v>
+      </c>
+      <c r="D14" s="3">
+        <v>32</v>
+      </c>
+      <c r="E14" s="6">
+        <v>4500</v>
+      </c>
+      <c r="F14" s="6">
+        <f>E14*D14</f>
+        <v>144000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+      <c r="B15" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6">
+        <f>SUBTOTAL(9,F12:F14)</f>
+        <v>672000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>9</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="4">
+        <v>42563</v>
+      </c>
+      <c r="D16" s="3">
+        <v>70</v>
+      </c>
+      <c r="E16" s="6">
+        <v>2000</v>
+      </c>
+      <c r="F16" s="6">
+        <f>E16*D16</f>
+        <v>140000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>10</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="4">
+        <v>42602</v>
+      </c>
+      <c r="D17" s="3">
+        <v>15</v>
+      </c>
+      <c r="E17" s="6">
+        <v>1000</v>
+      </c>
+      <c r="F17" s="6">
+        <f>E17*D17</f>
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>11</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="4">
+        <v>42949</v>
+      </c>
+      <c r="D18" s="3">
+        <v>20</v>
+      </c>
+      <c r="E18" s="6">
+        <v>2900</v>
+      </c>
+      <c r="F18" s="6">
+        <f>E18*D18</f>
+        <v>58000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A19" s="3"/>
+      <c r="B19" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="4"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6">
+        <f>SUBTOTAL(9,F16:F18)</f>
+        <v>213000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>12</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="4">
+        <v>42493</v>
+      </c>
+      <c r="D20" s="3">
+        <v>56</v>
+      </c>
+      <c r="E20" s="6">
+        <v>25000</v>
+      </c>
+      <c r="F20" s="6">
+        <f>E20*D20</f>
+        <v>1400000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3"/>
+      <c r="B21" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="4"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6">
+        <f>SUBTOTAL(9,F20:F20)</f>
+        <v>1400000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>13</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="4">
+        <v>42578</v>
+      </c>
+      <c r="D22" s="3">
+        <v>102</v>
+      </c>
+      <c r="E22" s="6">
+        <v>1200</v>
+      </c>
+      <c r="F22" s="6">
+        <f>E22*D22</f>
+        <v>122400</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>14</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="4">
+        <v>42586</v>
+      </c>
+      <c r="D23" s="3">
+        <v>45</v>
+      </c>
+      <c r="E23" s="6">
+        <v>500</v>
+      </c>
+      <c r="F23" s="6">
+        <f>E23*D23</f>
+        <v>22500</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>15</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="4">
+        <v>42809</v>
+      </c>
+      <c r="D24" s="3">
+        <v>25</v>
+      </c>
+      <c r="E24" s="6">
+        <v>1540</v>
+      </c>
+      <c r="F24" s="6">
+        <f>E24*D24</f>
+        <v>38500</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A25" s="8"/>
+      <c r="B25" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" s="9"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10">
+        <f>SUBTOTAL(9,F22:F24)</f>
+        <v>183400</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A26" s="8"/>
+      <c r="B26" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="9"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10">
+        <f>SUBTOTAL(9,F3:F24)</f>
+        <v>3617400</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" max="2" min="2" width="5"/>
-    <col customWidth="1" max="3" min="3" width="21"/>
-    <col customWidth="1" max="4" min="4" width="18"/>
-    <col customWidth="1" max="5" min="5" width="12"/>
-    <col customWidth="1" max="6" min="6" width="12"/>
-    <col customWidth="1" max="7" min="7" width="14"/>
+    <col min="1" max="1" width="6.42578125" customWidth="1"/>
+    <col min="2" max="2" width="22.28515625" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7">
-      <c r="B2" s="1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row customHeight="1" ht="27" r="4" spans="1:7">
-      <c r="B4" s="2" t="s">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="1" t="n"/>
-      <c r="B5" s="3" t="n">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="B3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="4">
+        <v>42935</v>
+      </c>
+      <c r="D3" s="3">
+        <v>100</v>
+      </c>
+      <c r="E3" s="6">
+        <v>7800</v>
+      </c>
+      <c r="F3" s="6">
+        <f t="shared" ref="F3:F17" si="0">E3*D3</f>
+        <v>780000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="4">
+        <v>42970</v>
+      </c>
+      <c r="D4" s="3">
+        <v>38</v>
+      </c>
+      <c r="E4" s="6">
+        <v>4500</v>
+      </c>
+      <c r="F4" s="6">
+        <f t="shared" si="0"/>
+        <v>171000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="4">
+        <v>42885</v>
+      </c>
+      <c r="D5" s="3">
+        <v>38</v>
+      </c>
+      <c r="E5" s="6">
+        <v>3000</v>
+      </c>
+      <c r="F5" s="6">
+        <f t="shared" si="0"/>
+        <v>114000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="4" t="n">
+      <c r="C6" s="4">
+        <v>42811</v>
+      </c>
+      <c r="D6" s="3">
+        <v>25</v>
+      </c>
+      <c r="E6" s="6">
+        <v>3000</v>
+      </c>
+      <c r="F6" s="6">
+        <f t="shared" si="0"/>
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="4">
+        <v>42950</v>
+      </c>
+      <c r="D7" s="3">
+        <v>6</v>
+      </c>
+      <c r="E7" s="6">
+        <v>1500</v>
+      </c>
+      <c r="F7" s="6">
+        <f t="shared" si="0"/>
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="4">
+        <v>41700</v>
+      </c>
+      <c r="D8" s="3">
+        <v>50</v>
+      </c>
+      <c r="E8" s="6">
+        <v>6000</v>
+      </c>
+      <c r="F8" s="6">
+        <f t="shared" si="0"/>
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>7</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="4">
+        <v>42416</v>
+      </c>
+      <c r="D9" s="3">
+        <v>19</v>
+      </c>
+      <c r="E9" s="6">
+        <v>12000</v>
+      </c>
+      <c r="F9" s="6">
+        <f t="shared" si="0"/>
+        <v>228000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="4">
+        <v>42991</v>
+      </c>
+      <c r="D10" s="3">
+        <v>32</v>
+      </c>
+      <c r="E10" s="6">
+        <v>4500</v>
+      </c>
+      <c r="F10" s="6">
+        <f t="shared" si="0"/>
+        <v>144000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>9</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="4">
+        <v>42563</v>
+      </c>
+      <c r="D11" s="3">
+        <v>70</v>
+      </c>
+      <c r="E11" s="6">
+        <v>2000</v>
+      </c>
+      <c r="F11" s="6">
+        <f t="shared" si="0"/>
+        <v>140000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>10</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="4">
+        <v>42602</v>
+      </c>
+      <c r="D12" s="3">
+        <v>15</v>
+      </c>
+      <c r="E12" s="6">
+        <v>1000</v>
+      </c>
+      <c r="F12" s="6">
+        <f t="shared" si="0"/>
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>11</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="4">
+        <v>42949</v>
+      </c>
+      <c r="D13" s="3">
+        <v>20</v>
+      </c>
+      <c r="E13" s="6">
+        <v>2900</v>
+      </c>
+      <c r="F13" s="6">
+        <f t="shared" si="0"/>
+        <v>58000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>12</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="4">
         <v>42493</v>
       </c>
-      <c r="E5" s="3" t="n">
+      <c r="D14" s="3">
         <v>56</v>
       </c>
-      <c r="F5" s="3" t="n">
+      <c r="E14" s="6">
         <v>25000</v>
       </c>
-      <c r="G5" s="3" t="n"/>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="1" t="n"/>
-      <c r="B6" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>42970</v>
-      </c>
-      <c r="E6" s="3" t="n">
-        <v>38</v>
-      </c>
-      <c r="F6" s="3" t="n">
-        <v>4500</v>
-      </c>
-      <c r="G6" s="3" t="n"/>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="C7" s="3" t="s">
+      <c r="F14" s="6">
+        <f t="shared" si="0"/>
+        <v>1400000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>13</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="4" t="n">
+      <c r="C15" s="4">
+        <v>42578</v>
+      </c>
+      <c r="D15" s="3">
+        <v>102</v>
+      </c>
+      <c r="E15" s="6">
+        <v>1200</v>
+      </c>
+      <c r="F15" s="6">
+        <f t="shared" si="0"/>
+        <v>122400</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>14</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="4">
         <v>42586</v>
       </c>
-      <c r="E7" s="3" t="n">
+      <c r="D16" s="3">
         <v>45</v>
       </c>
-      <c r="F7" s="3" t="n">
+      <c r="E16" s="6">
         <v>500</v>
       </c>
-      <c r="G7" s="3" t="n"/>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="1" t="n"/>
-      <c r="B8" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="C8" s="3" t="s">
+      <c r="F16" s="6">
+        <f t="shared" si="0"/>
+        <v>22500</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>15</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="4" t="n">
+      <c r="C17" s="4">
         <v>42809</v>
       </c>
-      <c r="E8" s="3" t="n">
+      <c r="D17" s="3">
         <v>25</v>
       </c>
-      <c r="F8" s="3" t="n">
+      <c r="E17" s="6">
         <v>1540</v>
       </c>
-      <c r="G8" s="3" t="n"/>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="1" t="n"/>
-      <c r="B9" s="3" t="n">
-        <v>5</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="4" t="n">
-        <v>42991</v>
-      </c>
-      <c r="E9" s="3" t="n">
-        <v>32</v>
-      </c>
-      <c r="F9" s="3" t="n">
-        <v>4500</v>
-      </c>
-      <c r="G9" s="3" t="n"/>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="1" t="n"/>
-      <c r="B10" s="3" t="n">
-        <v>6</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="4" t="n">
-        <v>41700</v>
-      </c>
-      <c r="E10" s="3" t="n">
-        <v>50</v>
-      </c>
-      <c r="F10" s="3" t="n">
-        <v>6000</v>
-      </c>
-      <c r="G10" s="3" t="n"/>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="1" t="n"/>
-      <c r="B11" s="3" t="n">
-        <v>7</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="4" t="n">
-        <v>42950</v>
-      </c>
-      <c r="E11" s="3" t="n">
-        <v>6</v>
-      </c>
-      <c r="F11" s="3" t="n">
-        <v>1500</v>
-      </c>
-      <c r="G11" s="3" t="n"/>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="1" t="n"/>
-      <c r="B12" s="3" t="n">
-        <v>8</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="4" t="n">
-        <v>42811</v>
-      </c>
-      <c r="E12" s="3" t="n">
-        <v>25</v>
-      </c>
-      <c r="F12" s="3" t="n">
-        <v>3000</v>
-      </c>
-      <c r="G12" s="3" t="n"/>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="n">
-        <v>9</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="4" t="n">
-        <v>42602</v>
-      </c>
-      <c r="E13" s="3" t="n">
-        <v>15</v>
-      </c>
-      <c r="F13" s="3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G13" s="3" t="n"/>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="1" t="n"/>
-      <c r="B14" s="3" t="n">
-        <v>10</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="4" t="n">
-        <v>42416</v>
-      </c>
-      <c r="E14" s="3" t="n">
-        <v>19</v>
-      </c>
-      <c r="F14" s="3" t="n">
-        <v>12000</v>
-      </c>
-      <c r="G14" s="3" t="n"/>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="n">
-        <v>11</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="4" t="n">
-        <v>42949</v>
-      </c>
-      <c r="E15" s="3" t="n">
-        <v>20</v>
-      </c>
-      <c r="F15" s="3" t="n">
-        <v>2900</v>
-      </c>
-      <c r="G15" s="3" t="n"/>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="1" t="n"/>
-      <c r="B16" s="3" t="n">
-        <v>12</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" s="4" t="n">
-        <v>42885</v>
-      </c>
-      <c r="E16" s="3" t="n">
-        <v>38</v>
-      </c>
-      <c r="F16" s="3" t="n">
-        <v>3000</v>
-      </c>
-      <c r="G16" s="3" t="n"/>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="1" t="n"/>
-      <c r="B17" s="3" t="n">
-        <v>13</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" s="4" t="n">
-        <v>42563</v>
-      </c>
-      <c r="E17" s="3" t="n">
-        <v>70</v>
-      </c>
-      <c r="F17" s="3" t="n">
-        <v>2000</v>
-      </c>
-      <c r="G17" s="3" t="n"/>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="1" t="n"/>
-      <c r="B18" s="3" t="n">
-        <v>14</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" s="4" t="n">
-        <v>42578</v>
-      </c>
-      <c r="E18" s="3" t="n">
-        <v>102</v>
-      </c>
-      <c r="F18" s="3" t="n">
-        <v>1200</v>
-      </c>
-      <c r="G18" s="3" t="n"/>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="1" t="n"/>
-      <c r="B19" s="3" t="n">
-        <v>15</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19" s="4" t="n">
-        <v>42935</v>
-      </c>
-      <c r="E19" s="3" t="n">
-        <v>100</v>
-      </c>
-      <c r="F19" s="3" t="n">
-        <v>7800</v>
-      </c>
-      <c r="G19" s="3" t="n"/>
+      <c r="F17" s="6">
+        <f t="shared" si="0"/>
+        <v>38500</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A2:F17">
+    <filterColumn colId="2">
+      <dynamicFilter type="thisYear" val="42736" maxVal="43101"/>
+    </filterColumn>
+    <filterColumn colId="4">
+      <customFilters and="1">
+        <customFilter operator="greaterThan" val="3000"/>
+        <customFilter operator="lessThan" val="20000"/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="1">
-    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="A1:F1"/>
   </mergeCells>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/lab3_correct.xlsx
+++ b/lab3_correct.xlsx
@@ -516,7 +516,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="A1:F17"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -577,7 +577,7 @@
         <v>7800</v>
       </c>
       <c r="F3" s="6">
-        <f t="shared" ref="F3:F17" si="0">E3*D3</f>
+        <f>E3*D3</f>
         <v>780000</v>
       </c>
     </row>
@@ -598,7 +598,7 @@
         <v>4500</v>
       </c>
       <c r="F4" s="6">
-        <f t="shared" si="0"/>
+        <f>E4*D4</f>
         <v>171000</v>
       </c>
     </row>
@@ -619,7 +619,7 @@
         <v>3000</v>
       </c>
       <c r="F5" s="6">
-        <f t="shared" si="0"/>
+        <f>E5*D5</f>
         <v>114000</v>
       </c>
     </row>
@@ -640,7 +640,7 @@
         <v>3000</v>
       </c>
       <c r="F6" s="6">
-        <f t="shared" si="0"/>
+        <f>E6*D6</f>
         <v>75000</v>
       </c>
     </row>
@@ -661,7 +661,7 @@
         <v>1500</v>
       </c>
       <c r="F7" s="6">
-        <f t="shared" si="0"/>
+        <f>E7*D7</f>
         <v>9000</v>
       </c>
     </row>
@@ -682,7 +682,7 @@
         <v>6000</v>
       </c>
       <c r="F8" s="6">
-        <f t="shared" si="0"/>
+        <f>E8*D8</f>
         <v>300000</v>
       </c>
     </row>
@@ -703,7 +703,7 @@
         <v>12000</v>
       </c>
       <c r="F9" s="6">
-        <f t="shared" si="0"/>
+        <f>E9*D9</f>
         <v>228000</v>
       </c>
     </row>
@@ -724,7 +724,7 @@
         <v>4500</v>
       </c>
       <c r="F10" s="6">
-        <f t="shared" si="0"/>
+        <f>E10*D10</f>
         <v>144000</v>
       </c>
     </row>
@@ -745,7 +745,7 @@
         <v>2000</v>
       </c>
       <c r="F11" s="6">
-        <f t="shared" si="0"/>
+        <f>E11*D11</f>
         <v>140000</v>
       </c>
     </row>
@@ -766,7 +766,7 @@
         <v>1000</v>
       </c>
       <c r="F12" s="6">
-        <f t="shared" si="0"/>
+        <f>E12*D12</f>
         <v>15000</v>
       </c>
     </row>
@@ -787,7 +787,7 @@
         <v>2900</v>
       </c>
       <c r="F13" s="6">
-        <f t="shared" si="0"/>
+        <f>E13*D13</f>
         <v>58000</v>
       </c>
     </row>
@@ -808,7 +808,7 @@
         <v>25000</v>
       </c>
       <c r="F14" s="6">
-        <f t="shared" si="0"/>
+        <f>E14*D14</f>
         <v>1400000</v>
       </c>
     </row>
@@ -829,7 +829,7 @@
         <v>1200</v>
       </c>
       <c r="F15" s="6">
-        <f t="shared" si="0"/>
+        <f>E15*D15</f>
         <v>122400</v>
       </c>
     </row>
@@ -850,7 +850,7 @@
         <v>500</v>
       </c>
       <c r="F16" s="6">
-        <f t="shared" si="0"/>
+        <f>E16*D16</f>
         <v>22500</v>
       </c>
     </row>
@@ -871,7 +871,7 @@
         <v>1540</v>
       </c>
       <c r="F17" s="6">
-        <f t="shared" si="0"/>
+        <f>E17*D17</f>
         <v>38500</v>
       </c>
     </row>
@@ -883,13 +883,14 @@
     </row>
   </sheetData>
   <sortState ref="B3:F17">
-    <sortCondition ref="B5:B19"/>
-    <sortCondition ref="C5:C19"/>
+    <sortCondition ref="B3:B17"/>
+    <sortCondition ref="C3:C17"/>
   </sortState>
   <mergeCells count="1">
     <mergeCell ref="A1:F1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -898,7 +899,7 @@
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="2" x14ac:dyDescent="0.25"/>
@@ -1395,7 +1396,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/lab3_correct.xlsx
+++ b/lab3_correct.xlsx
@@ -516,7 +516,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="C3" sqref="C3:C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -577,7 +577,7 @@
         <v>7800</v>
       </c>
       <c r="F3" s="6">
-        <f>E3*D3</f>
+        <f t="shared" ref="F3:F17" si="0">E3*D3</f>
         <v>780000</v>
       </c>
     </row>
@@ -598,7 +598,7 @@
         <v>4500</v>
       </c>
       <c r="F4" s="6">
-        <f>E4*D4</f>
+        <f t="shared" si="0"/>
         <v>171000</v>
       </c>
     </row>
@@ -619,7 +619,7 @@
         <v>3000</v>
       </c>
       <c r="F5" s="6">
-        <f>E5*D5</f>
+        <f t="shared" si="0"/>
         <v>114000</v>
       </c>
     </row>
@@ -640,7 +640,7 @@
         <v>3000</v>
       </c>
       <c r="F6" s="6">
-        <f>E6*D6</f>
+        <f t="shared" si="0"/>
         <v>75000</v>
       </c>
     </row>
@@ -661,7 +661,7 @@
         <v>1500</v>
       </c>
       <c r="F7" s="6">
-        <f>E7*D7</f>
+        <f t="shared" si="0"/>
         <v>9000</v>
       </c>
     </row>
@@ -682,7 +682,7 @@
         <v>6000</v>
       </c>
       <c r="F8" s="6">
-        <f>E8*D8</f>
+        <f t="shared" si="0"/>
         <v>300000</v>
       </c>
     </row>
@@ -703,7 +703,7 @@
         <v>12000</v>
       </c>
       <c r="F9" s="6">
-        <f>E9*D9</f>
+        <f t="shared" si="0"/>
         <v>228000</v>
       </c>
     </row>
@@ -724,7 +724,7 @@
         <v>4500</v>
       </c>
       <c r="F10" s="6">
-        <f>E10*D10</f>
+        <f t="shared" si="0"/>
         <v>144000</v>
       </c>
     </row>
@@ -745,7 +745,7 @@
         <v>2000</v>
       </c>
       <c r="F11" s="6">
-        <f>E11*D11</f>
+        <f t="shared" si="0"/>
         <v>140000</v>
       </c>
     </row>
@@ -766,7 +766,7 @@
         <v>1000</v>
       </c>
       <c r="F12" s="6">
-        <f>E12*D12</f>
+        <f t="shared" si="0"/>
         <v>15000</v>
       </c>
     </row>
@@ -787,7 +787,7 @@
         <v>2900</v>
       </c>
       <c r="F13" s="6">
-        <f>E13*D13</f>
+        <f t="shared" si="0"/>
         <v>58000</v>
       </c>
     </row>
@@ -808,7 +808,7 @@
         <v>25000</v>
       </c>
       <c r="F14" s="6">
-        <f>E14*D14</f>
+        <f t="shared" si="0"/>
         <v>1400000</v>
       </c>
     </row>
@@ -829,7 +829,7 @@
         <v>1200</v>
       </c>
       <c r="F15" s="6">
-        <f>E15*D15</f>
+        <f t="shared" si="0"/>
         <v>122400</v>
       </c>
     </row>
@@ -850,7 +850,7 @@
         <v>500</v>
       </c>
       <c r="F16" s="6">
-        <f>E16*D16</f>
+        <f t="shared" si="0"/>
         <v>22500</v>
       </c>
     </row>
@@ -871,7 +871,7 @@
         <v>1540</v>
       </c>
       <c r="F17" s="6">
-        <f>E17*D17</f>
+        <f t="shared" si="0"/>
         <v>38500</v>
       </c>
     </row>
